--- a/Сomparison table.xlsx
+++ b/Сomparison table.xlsx
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Non-IT</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Maptionnaire</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1803,13 +1803,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Tabelle2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:V990"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -1840,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>5</v>
@@ -1855,13 +1856,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="150" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="M1" s="150" t="s">
-        <v>81</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
@@ -1877,7 +1878,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="19">
         <v>1</v>
@@ -1923,7 +1924,7 @@
     <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="170"/>
       <c r="B3" s="82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="19">
         <v>1</v>
@@ -1969,7 +1970,7 @@
     <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="168"/>
       <c r="B4" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="38">
         <v>0</v>
@@ -2014,10 +2015,10 @@
     </row>
     <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="171" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="41">
         <v>1</v>
@@ -2063,7 +2064,7 @@
     <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="170"/>
       <c r="B6" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="22">
         <v>0</v>
@@ -2109,7 +2110,7 @@
     <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="170"/>
       <c r="B7" s="85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="22">
         <v>1</v>
@@ -2155,7 +2156,7 @@
     <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="170"/>
       <c r="B8" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="22">
         <v>0</v>
@@ -2201,7 +2202,7 @@
     <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="170"/>
       <c r="B9" s="86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="22">
         <v>1</v>
@@ -2247,7 +2248,7 @@
     <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="168"/>
       <c r="B10" s="87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="44">
         <v>0</v>
@@ -2292,10 +2293,10 @@
     </row>
     <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="172" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="47">
         <v>1</v>
@@ -2341,7 +2342,7 @@
     <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="170"/>
       <c r="B12" s="89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C12" s="25">
         <v>0</v>
@@ -2387,7 +2388,7 @@
     <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="170"/>
       <c r="B13" s="90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="25">
         <v>0</v>
@@ -2433,7 +2434,7 @@
     <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="168"/>
       <c r="B14" s="91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="51">
         <v>1</v>
@@ -2478,10 +2479,10 @@
     </row>
     <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="173" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="54">
         <v>1</v>
@@ -2527,7 +2528,7 @@
     <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="170"/>
       <c r="B16" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C16" s="29">
         <v>1</v>
@@ -2573,7 +2574,7 @@
     <row r="17" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="170"/>
       <c r="B17" s="93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="29">
         <v>1</v>
@@ -2619,7 +2620,7 @@
     <row r="18" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="170"/>
       <c r="B18" s="94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="29">
         <v>1</v>
@@ -2665,7 +2666,7 @@
     <row r="19" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="170"/>
       <c r="B19" s="93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="33">
         <v>0</v>
@@ -2711,7 +2712,7 @@
     <row r="20" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="168"/>
       <c r="B20" s="95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="58">
         <v>1</v>
@@ -2756,10 +2757,10 @@
     </row>
     <row r="21" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="96" t="s">
         <v>37</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>38</v>
       </c>
       <c r="C21" s="62">
         <v>1</v>
@@ -2805,7 +2806,7 @@
     <row r="22" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="168"/>
       <c r="B22" s="97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="66">
         <v>1</v>
@@ -2850,10 +2851,10 @@
     </row>
     <row r="23" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="70">
         <v>1</v>
@@ -2899,7 +2900,7 @@
     <row r="24" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="168"/>
       <c r="B24" s="99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" s="74">
         <v>0</v>
@@ -2944,10 +2945,10 @@
     </row>
     <row r="25" spans="1:18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="100" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="100" t="s">
-        <v>43</v>
       </c>
       <c r="C25" s="34">
         <v>1</v>
@@ -7929,14 +7930,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Tabelle1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AB990"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A14" sqref="A14"/>
+      <selection pane="topRight" activeCell="L40" sqref="L40:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7950,7 +7952,7 @@
     <col min="7" max="7" width="17.140625" style="101" customWidth="1"/>
     <col min="8" max="8" width="7.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -7979,10 +7981,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="145" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="142"/>
       <c r="I1" s="102" t="s">
@@ -8013,13 +8015,13 @@
         <v>8</v>
       </c>
       <c r="R1" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="103" t="s">
         <v>46</v>
-      </c>
-      <c r="S1" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="T1" s="103" t="s">
-        <v>47</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -8041,16 +8043,16 @@
         <v>16</v>
       </c>
       <c r="D2" s="115" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="132" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="146">
         <v>0</v>
       </c>
       <c r="G2" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="143">
         <f>IF(G2="Yes",1,0)</f>
@@ -8102,16 +8104,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="132" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3" s="146">
         <v>0</v>
       </c>
       <c r="G3" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H3" s="143">
         <f t="shared" ref="H3:H26" si="0">IF(G3="Yes",1,0)</f>
@@ -8157,22 +8159,22 @@
     <row r="4" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="176"/>
       <c r="B4" s="114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="114" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="132" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="146">
         <v>1</v>
       </c>
       <c r="G4" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="143">
         <f t="shared" si="0"/>
@@ -8217,25 +8219,25 @@
     </row>
     <row r="5" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="179" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="117" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="118" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="133" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" s="146">
         <v>3</v>
       </c>
       <c r="G5" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="143">
         <f t="shared" si="0"/>
@@ -8281,22 +8283,22 @@
     <row r="6" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="178"/>
       <c r="B6" s="117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="117" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="118" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F6" s="146">
         <v>0</v>
       </c>
       <c r="G6" s="147" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H6" s="143">
         <f t="shared" si="0"/>
@@ -8342,22 +8344,22 @@
     <row r="7" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="178"/>
       <c r="B7" s="117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="117" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="118" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="146">
         <v>2</v>
       </c>
       <c r="G7" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="143">
         <f t="shared" si="0"/>
@@ -8403,22 +8405,22 @@
     <row r="8" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="178"/>
       <c r="B8" s="117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="118" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="134" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="118" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="134" t="s">
-        <v>23</v>
       </c>
       <c r="F8" s="146">
         <v>2</v>
       </c>
       <c r="G8" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="143">
         <f t="shared" si="0"/>
@@ -8464,22 +8466,22 @@
     <row r="9" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="178"/>
       <c r="B9" s="117" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="117" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="133" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9" s="146">
         <v>1</v>
       </c>
       <c r="G9" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="143">
         <f t="shared" si="0"/>
@@ -8528,19 +8530,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="117" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="133" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F10" s="146">
         <v>2</v>
       </c>
       <c r="G10" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" s="143">
         <f t="shared" si="0"/>
@@ -8585,25 +8587,25 @@
     </row>
     <row r="11" spans="1:28" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="180" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="120" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="135" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="146">
         <v>2</v>
       </c>
       <c r="G11" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" s="143">
         <f t="shared" si="0"/>
@@ -8649,22 +8651,22 @@
     <row r="12" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="178"/>
       <c r="B12" s="120" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="120" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="135" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F12" s="146">
         <v>3</v>
       </c>
       <c r="G12" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H12" s="143">
         <f t="shared" si="0"/>
@@ -8716,16 +8718,16 @@
         <v>16</v>
       </c>
       <c r="D13" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="135" t="s">
         <v>55</v>
-      </c>
-      <c r="E13" s="135" t="s">
-        <v>56</v>
       </c>
       <c r="F13" s="146">
         <v>2</v>
       </c>
       <c r="G13" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="143">
         <f t="shared" si="0"/>
@@ -8774,19 +8776,19 @@
         <v>15</v>
       </c>
       <c r="C14" s="120" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="135" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F14" s="146">
         <v>3</v>
       </c>
       <c r="G14" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H14" s="143">
         <f t="shared" si="0"/>
@@ -8831,25 +8833,25 @@
     </row>
     <row r="15" spans="1:28" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="181" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="123" t="s">
+      <c r="C15" s="123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="136" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="123" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="136" t="s">
-        <v>30</v>
-      </c>
       <c r="F15" s="146">
         <v>1</v>
       </c>
       <c r="G15" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H15" s="143">
         <f t="shared" si="0"/>
@@ -8898,19 +8900,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="124" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="146">
         <v>2</v>
       </c>
       <c r="G16" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H16" s="143">
         <f t="shared" si="0"/>
@@ -8959,19 +8961,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="124" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="146">
         <v>1</v>
       </c>
       <c r="G17" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17" s="143">
         <f t="shared" si="0"/>
@@ -9017,22 +9019,22 @@
     <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="178"/>
       <c r="B18" s="123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="136" t="s">
-        <v>34</v>
-      </c>
       <c r="F18" s="146">
         <v>1</v>
       </c>
       <c r="G18" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="143">
         <f t="shared" si="0"/>
@@ -9078,22 +9080,22 @@
     <row r="19" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="178"/>
       <c r="B19" s="123" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="137" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" s="146">
         <v>2</v>
       </c>
       <c r="G19" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="143">
         <f t="shared" si="0"/>
@@ -9142,13 +9144,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="123" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="137" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F20" s="146">
         <v>3</v>
@@ -9158,7 +9160,7 @@
       </c>
       <c r="H20" s="143">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="108">
         <v>1</v>
@@ -9199,25 +9201,25 @@
     </row>
     <row r="21" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="125" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="126" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="138" t="s">
         <v>38</v>
-      </c>
-      <c r="E21" s="138" t="s">
-        <v>39</v>
       </c>
       <c r="F21" s="146">
         <v>5</v>
       </c>
       <c r="G21" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="143">
         <f t="shared" si="0"/>
@@ -9263,22 +9265,22 @@
     <row r="22" spans="1:20" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="183"/>
       <c r="B22" s="125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="125" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="126" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="146">
         <v>3</v>
       </c>
       <c r="G22" s="147" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H22" s="143">
         <f t="shared" si="0"/>
@@ -9323,25 +9325,25 @@
     </row>
     <row r="23" spans="1:20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="127" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="128" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="140" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F23" s="146">
         <v>5</v>
       </c>
       <c r="G23" s="147" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H23" s="143">
         <f t="shared" si="0"/>
@@ -9387,22 +9389,22 @@
     <row r="24" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="176"/>
       <c r="B24" s="127" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="127" t="s">
         <v>16</v>
       </c>
       <c r="D24" s="128" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E24" s="140" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F24" s="146">
         <v>3</v>
       </c>
       <c r="G24" s="147" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="143">
         <f t="shared" si="0"/>
@@ -9445,9 +9447,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="130" t="s">
         <v>15</v>
@@ -9456,16 +9458,16 @@
         <v>16</v>
       </c>
       <c r="D25" s="130" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="141" t="s">
         <v>43</v>
-      </c>
-      <c r="E25" s="141" t="s">
-        <v>44</v>
       </c>
       <c r="F25" s="148">
         <v>2</v>
       </c>
       <c r="G25" s="149" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="143">
         <f t="shared" si="0"/>
@@ -9546,7 +9548,7 @@
       </c>
       <c r="O26" s="111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P26" s="111">
         <f t="shared" si="1"/>
@@ -9560,7 +9562,10 @@
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="S26" s="111"/>
+      <c r="S26" s="111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="T26" s="111">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -9600,7 +9605,7 @@
       </c>
       <c r="O27" s="112">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P27" s="112">
         <f t="shared" si="2"/>
@@ -9614,7 +9619,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S27" s="112"/>
+      <c r="S27" s="112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="T27" s="112">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -9629,7 +9637,54 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <f>_xlfn.RANK.EQ(I27,$I27:$T27)</f>
+        <v>7</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" ref="J28:T28" si="3">_xlfn.RANK.EQ(J27,$I27:$T27)</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L28" s="3">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q28" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="R28" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="S28" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="T28" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
@@ -20212,6 +20267,86 @@
       <c r="I990" s="3"/>
     </row>
   </sheetData>
+  <scenarios current="0" show="0" sqref="I27 J27 K27 L27 M27 N27 O27 P27 Q27 R27 T27">
+    <scenario name="Random Scenario" count="24" user="Autor" comment="Shows a random scenario for the weighing form 0 to 5">
+      <inputCells r="F2" val="0"/>
+      <inputCells r="F3" val="0"/>
+      <inputCells r="F4" val="1"/>
+      <inputCells r="F5" val="3"/>
+      <inputCells r="F6" val="0"/>
+      <inputCells r="F7" val="2"/>
+      <inputCells r="F8" val="2"/>
+      <inputCells r="F9" val="1"/>
+      <inputCells r="F10" val="2"/>
+      <inputCells r="F11" val="2"/>
+      <inputCells r="F12" val="3"/>
+      <inputCells r="F13" val="2"/>
+      <inputCells r="F14" val="3"/>
+      <inputCells r="F15" val="1"/>
+      <inputCells r="F16" val="2"/>
+      <inputCells r="F17" val="1"/>
+      <inputCells r="F18" val="1"/>
+      <inputCells r="F19" val="2"/>
+      <inputCells r="F20" val="3"/>
+      <inputCells r="F21" val="5"/>
+      <inputCells r="F22" val="3"/>
+      <inputCells r="F23" val="5"/>
+      <inputCells r="F24" val="3"/>
+      <inputCells r="F25" val="2"/>
+    </scenario>
+    <scenario name="All Weigts to 1" count="24" user="Autor" comment="Weighing is set to 1">
+      <inputCells r="F2" val="1"/>
+      <inputCells r="F3" val="1"/>
+      <inputCells r="F4" val="1"/>
+      <inputCells r="F5" val="1"/>
+      <inputCells r="F6" val="1"/>
+      <inputCells r="F7" val="1"/>
+      <inputCells r="F8" val="1"/>
+      <inputCells r="F9" val="1"/>
+      <inputCells r="F10" val="1"/>
+      <inputCells r="F11" val="1"/>
+      <inputCells r="F12" val="1"/>
+      <inputCells r="F13" val="1"/>
+      <inputCells r="F14" val="1"/>
+      <inputCells r="F15" val="1"/>
+      <inputCells r="F16" val="1"/>
+      <inputCells r="F17" val="1"/>
+      <inputCells r="F18" val="1"/>
+      <inputCells r="F19" val="1"/>
+      <inputCells r="F20" val="1"/>
+      <inputCells r="F21" val="1"/>
+      <inputCells r="F22" val="1"/>
+      <inputCells r="F23" val="1"/>
+      <inputCells r="F24" val="1"/>
+      <inputCells r="F25" val="1"/>
+    </scenario>
+    <scenario name="All Weights to 2" count="24" user="Autor" comment="All Weights are set to 2">
+      <inputCells r="F2" val="2"/>
+      <inputCells r="F3" val="2"/>
+      <inputCells r="F4" val="2"/>
+      <inputCells r="F5" val="2"/>
+      <inputCells r="F6" val="2"/>
+      <inputCells r="F7" val="2"/>
+      <inputCells r="F8" val="2"/>
+      <inputCells r="F9" val="2"/>
+      <inputCells r="F10" val="2"/>
+      <inputCells r="F11" val="2"/>
+      <inputCells r="F12" val="2"/>
+      <inputCells r="F13" val="2"/>
+      <inputCells r="F14" val="2"/>
+      <inputCells r="F15" val="2"/>
+      <inputCells r="F16" val="2"/>
+      <inputCells r="F17" val="2"/>
+      <inputCells r="F18" val="2"/>
+      <inputCells r="F19" val="2"/>
+      <inputCells r="F20" val="2"/>
+      <inputCells r="F21" val="2"/>
+      <inputCells r="F22" val="2"/>
+      <inputCells r="F23" val="2"/>
+      <inputCells r="F24" val="2"/>
+      <inputCells r="F25" val="2"/>
+    </scenario>
+  </scenarios>
   <mergeCells count="6">
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="A2:A4"/>
@@ -20221,7 +20356,7 @@
     <mergeCell ref="A21:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="I27:T27">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20235,7 +20370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:T25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$H2&gt;I2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20243,8 +20378,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G25">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F25">
       <formula1>0</formula1>
+      <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20263,6 +20399,22 @@
           </x14:cfRule>
           <xm:sqref>I27:T27</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{C46C1759-A824-482B-BD27-508216609D6A}">
+            <x14:iconSet iconSet="3Stars" reverse="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>I28:T28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
